--- a/data/trans_orig/P14A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6205AA-B706-498F-BE8A-C67F1166D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D3E725-35FE-4000-AE37-60008F199CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2E6C695-BB5F-40DA-86A0-2F60F772B9B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D64D48A6-1531-4B73-9A93-30547C06346A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>84,36%</t>
   </si>
   <si>
-    <t>28,85%</t>
+    <t>32,91%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -123,7 +123,7 @@
     <t>15,64%</t>
   </si>
   <si>
-    <t>71,15%</t>
+    <t>67,09%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -132,7 +132,7 @@
     <t>89,51%</t>
   </si>
   <si>
-    <t>50,05%</t>
+    <t>50,46%</t>
   </si>
   <si>
     <t>82,55%</t>
@@ -144,13 +144,13 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>62,67%</t>
+    <t>60,04%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>49,95%</t>
+    <t>49,54%</t>
   </si>
   <si>
     <t>17,45%</t>
@@ -162,7 +162,7 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>37,33%</t>
+    <t>39,96%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -183,7 +183,7 @@
     <t>73,8%</t>
   </si>
   <si>
-    <t>39,13%</t>
+    <t>38,06%</t>
   </si>
   <si>
     <t>92,34%</t>
@@ -207,7 +207,7 @@
     <t>7,66%</t>
   </si>
   <si>
-    <t>60,87%</t>
+    <t>61,94%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -216,31 +216,31 @@
     <t>80,31%</t>
   </si>
   <si>
-    <t>20,71%</t>
+    <t>20,39%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>56,0%</t>
+    <t>45,57%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>79,29%</t>
+    <t>79,61%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>44,0%</t>
+    <t>54,43%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>71,58%</t>
   </si>
   <si>
     <t>77,37%</t>
@@ -255,16 +255,16 @@
     <t>83,99%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>22,63%</t>
@@ -279,10 +279,10 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -315,7 +315,7 @@
     <t>86,98%</t>
   </si>
   <si>
-    <t>51,27%</t>
+    <t>51,84%</t>
   </si>
   <si>
     <t>71,33%</t>
@@ -324,13 +324,13 @@
     <t>82,88%</t>
   </si>
   <si>
-    <t>50,99%</t>
+    <t>50,62%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>48,73%</t>
+    <t>48,16%</t>
   </si>
   <si>
     <t>28,67%</t>
@@ -339,7 +339,7 @@
     <t>17,12%</t>
   </si>
   <si>
-    <t>49,01%</t>
+    <t>49,38%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -366,7 +366,7 @@
     <t>89,99%</t>
   </si>
   <si>
-    <t>53,42%</t>
+    <t>55,31%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -381,13 +381,13 @@
     <t>10,01%</t>
   </si>
   <si>
-    <t>46,58%</t>
+    <t>44,69%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>74,48%</t>
+    <t>75,8%</t>
   </si>
   <si>
     <t>88,47%</t>
@@ -399,16 +399,16 @@
     <t>90,47%</t>
   </si>
   <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>25,52%</t>
+    <t>24,2%</t>
   </si>
   <si>
     <t>11,53%</t>
@@ -420,10 +420,10 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FC359D-A9EB-4C96-AFA4-E14C9CB64390}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F1A5E8-0FCF-4EBB-8B11-5A98210833AB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1898,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE7C31D-A4B3-46B9-BDFE-9869CBB879F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCF1066-87DE-4F19-8E0D-37931EA83FE2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A12-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D3E725-35FE-4000-AE37-60008F199CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{733ECC41-80A9-4119-9D86-524B0F65F469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D64D48A6-1531-4B73-9A93-30547C06346A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16BAA171-9570-42AA-B4DC-07AC2244FE50}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="131">
   <si>
     <t>Población que recibe medicación o terapia por angina de pecho en 2012 (Tasa respuesta: 0,68%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -99,7 +99,7 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -108,10 +108,13 @@
     <t>73,08%</t>
   </si>
   <si>
+    <t>22,16%</t>
+  </si>
+  <si>
     <t>84,36%</t>
   </si>
   <si>
-    <t>32,91%</t>
+    <t>39,28%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -120,52 +123,55 @@
     <t>26,92%</t>
   </si>
   <si>
+    <t>77,84%</t>
+  </si>
+  <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>50,46%</t>
+    <t>50,98%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>31,13%</t>
+    <t>30,98%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>60,04%</t>
+    <t>62,63%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>49,54%</t>
+    <t>49,02%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>68,87%</t>
+    <t>69,02%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -174,16 +180,16 @@
     <t>61,12%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>38,06%</t>
+    <t>41,75%</t>
   </si>
   <si>
     <t>92,34%</t>
@@ -195,10 +201,10 @@
     <t>38,88%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>26,2%</t>
@@ -207,7 +213,7 @@
     <t>7,66%</t>
   </si>
   <si>
-    <t>61,94%</t>
+    <t>58,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -222,7 +228,7 @@
     <t>89,22%</t>
   </si>
   <si>
-    <t>45,57%</t>
+    <t>55,5%</t>
   </si>
   <si>
     <t>19,69%</t>
@@ -234,61 +240,61 @@
     <t>10,78%</t>
   </si>
   <si>
-    <t>54,43%</t>
+    <t>44,5%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>71,58%</t>
+    <t>74,92%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>25,08%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por angina de pecho en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población que recibe medicación o terapia por angina de pecho en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -300,7 +306,7 @@
     <t>84,77%</t>
   </si>
   <si>
-    <t>24,16%</t>
+    <t>27,19%</t>
   </si>
   <si>
     <t>43,38%</t>
@@ -309,13 +315,13 @@
     <t>15,23%</t>
   </si>
   <si>
-    <t>75,84%</t>
+    <t>72,81%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>51,84%</t>
+    <t>51,12%</t>
   </si>
   <si>
     <t>71,33%</t>
@@ -324,13 +330,13 @@
     <t>82,88%</t>
   </si>
   <si>
-    <t>50,62%</t>
+    <t>51,65%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>48,16%</t>
+    <t>48,88%</t>
   </si>
   <si>
     <t>28,67%</t>
@@ -339,7 +345,7 @@
     <t>17,12%</t>
   </si>
   <si>
-    <t>49,38%</t>
+    <t>48,35%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -360,13 +366,13 @@
     <t>84,0%</t>
   </si>
   <si>
-    <t>37,68%</t>
+    <t>38,67%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>55,31%</t>
+    <t>53,51%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -375,55 +381,55 @@
     <t>16,0%</t>
   </si>
   <si>
-    <t>62,32%</t>
+    <t>61,33%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>44,69%</t>
+    <t>46,49%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>75,8%</t>
+    <t>66,41%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>61,06%</t>
+    <t>65,11%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>24,2%</t>
+    <t>33,59%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>38,94%</t>
+    <t>34,89%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
 </sst>
 </file>
@@ -835,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F1A5E8-0FCF-4EBB-8B11-5A98210833AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9092940B-CF74-4802-A675-981B8773D46F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1132,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -1144,10 +1150,10 @@
         <v>6259</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1171,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1180,13 +1186,13 @@
         <v>1160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1195,13 +1201,13 @@
         <v>1160</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1257,7 +1263,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1269,10 +1275,10 @@
         <v>8800</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -1284,10 +1290,10 @@
         <v>5436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1299,10 +1305,10 @@
         <v>14236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1320,13 +1326,13 @@
         <v>1032</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1335,13 +1341,13 @@
         <v>1149</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1350,13 +1356,13 @@
         <v>2181</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1412,7 +1418,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1427,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1439,13 +1445,13 @@
         <v>5186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1454,13 +1460,13 @@
         <v>9292</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,7 +1487,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1490,13 +1496,13 @@
         <v>3298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1505,13 +1511,13 @@
         <v>3298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,7 +1573,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1579,10 +1585,10 @@
         <v>4101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1597,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1609,10 +1615,10 @@
         <v>8327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1630,13 +1636,13 @@
         <v>1006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1651,7 +1657,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1660,13 +1666,13 @@
         <v>1006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,10 +1740,10 @@
         <v>20931</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -1749,13 +1755,13 @@
         <v>19170</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -1764,13 +1770,13 @@
         <v>40101</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1791,13 @@
         <v>2037</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1800,13 +1806,13 @@
         <v>5608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -1815,13 +1821,13 @@
         <v>7645</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1883,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCF1066-87DE-4F19-8E0D-37931EA83FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48688DCE-9B26-48A6-8C83-F044DAE86A9B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1915,7 +1921,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2035,13 +2041,13 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2084,13 +2090,13 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2133,13 +2139,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2171,7 +2177,7 @@
         <v>1053</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
@@ -2201,10 +2207,10 @@
         <v>4490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2222,7 +2228,7 @@
         <v>806</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -2243,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2252,13 +2258,13 @@
         <v>807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2320,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2326,10 +2332,10 @@
         <v>8696</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2341,7 +2347,7 @@
         <v>2533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
@@ -2356,10 +2362,10 @@
         <v>11229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2377,13 +2383,13 @@
         <v>1301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2392,7 +2398,7 @@
         <v>1018</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
@@ -2407,13 +2413,13 @@
         <v>2320</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2475,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2484,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2499,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2514,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2538,7 +2544,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2553,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2568,7 +2574,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2630,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2639,7 +2645,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2651,10 +2657,10 @@
         <v>6267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -2666,10 +2672,10 @@
         <v>10737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2693,7 +2699,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2702,13 +2708,13 @@
         <v>1194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2717,13 +2723,13 @@
         <v>1194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +2797,10 @@
         <v>24046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -2806,10 +2812,10 @@
         <v>16971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -2821,13 +2827,13 @@
         <v>41018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2848,13 @@
         <v>2108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2857,13 +2863,13 @@
         <v>2212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2872,13 +2878,13 @@
         <v>4320</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +2940,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
